--- a/test2.xlsx
+++ b/test2.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,61 +461,37 @@
       <c r="J1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -524,43 +499,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3421395631420499</v>
+        <v>0.16642450699947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09365281716813131</v>
+        <v>0.07896374568854957</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09135711425355902</v>
+        <v>0.1141971107216389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01382808643932004</v>
+        <v>0.218651903277301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0147542307472564</v>
+        <v>0.09400931330009588</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02066401939149143</v>
+        <v>0.0436958764478375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01277237133192924</v>
+        <v>0.1695747884214593</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006975751494428966</v>
+        <v>0.05127041656504472</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01550166998761991</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08288341644929435</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1632953643645717</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1065895163056595</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.03558607892468815</v>
+        <v>0.06321233857860313</v>
       </c>
     </row>
     <row r="4">
@@ -568,43 +531,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.56170765869711</v>
+        <v>0.1777663696296475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.140623750759326</v>
+        <v>0.08883571636356745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02597272009073803</v>
+        <v>0.1332061060940948</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008281</v>
+        <v>0.2120579367596608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004387221685409444</v>
+        <v>0.07096664759900934</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008554568804640703</v>
+        <v>0.02924704783967755</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004580118439425982</v>
+        <v>0.1868024877373533</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001240564261040358</v>
+        <v>0.04057275754605737</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006126243264396786</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.04778171589636904</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1083245580380986</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.06045450500924365</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.02826258003823362</v>
+        <v>0.06054493043093202</v>
       </c>
     </row>
     <row r="5">
@@ -612,43 +563,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6958508457243363</v>
+        <v>0.1865146417880599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1713679698200488</v>
+        <v>0.09715143936479646</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005366491798085469</v>
+        <v>0.1496212775179613</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008281</v>
+        <v>0.206797416407086</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008595729721408529</v>
+        <v>0.05145852500021227</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002515388202713513</v>
+        <v>0.01897040409404135</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001169777925100011</v>
+        <v>0.201248217126889</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001494444054811433</v>
+        <v>0.03053809517536664</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001639993475787556</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.02215204888722252</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.05426537494350633</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.02802139155893614</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.01575743314301101</v>
+        <v>0.05769998352558731</v>
       </c>
     </row>
     <row r="6">
@@ -656,43 +595,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7583351176471782</v>
+        <v>0.1929272522990622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1862424887240857</v>
+        <v>0.1037096130168402</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002601</v>
+        <v>0.1628104063925695</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008281</v>
+        <v>0.2027881219997262</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000103356255563863</v>
+        <v>0.03597994404644102</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006289028178074335</v>
+        <v>0.01200378660968639</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002466084862833458</v>
+        <v>0.212697445908082</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000144</v>
+        <v>0.0219825076201665</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000353393975323925</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.009344191826703511</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.02378315733870854</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.01188023172142489</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.007333926612861469</v>
+        <v>0.05510092210742584</v>
       </c>
     </row>
     <row r="7">
@@ -700,43 +627,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7843260736435749</v>
+        <v>0.1974282333147882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1925642217814798</v>
+        <v>0.1085892781801451</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002601</v>
+        <v>0.1727590787929686</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008281</v>
+        <v>0.1998586452996905</v>
       </c>
       <c r="F7" t="n">
-        <v>8.1e-05</v>
+        <v>0.0243896098560497</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001428514368399226</v>
+        <v>0.007458177610282225</v>
       </c>
       <c r="H7" t="n">
-        <v>5.082079497130811e-05</v>
+        <v>0.2213062087353955</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000144</v>
+        <v>0.01524060774956421</v>
       </c>
       <c r="J7" t="n">
-        <v>6.851724814366612e-05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.003813940730765378</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.009815340032966529</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.004914744633583899</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.003132158355653488</v>
+        <v>0.05297016046111581</v>
       </c>
     </row>
     <row r="8">
@@ -744,43 +659,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7948585627013002</v>
+        <v>0.2004785417702415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1951471486017494</v>
+        <v>0.1120472687919148</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002601</v>
+        <v>0.1798789010946663</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008281</v>
+        <v>0.1977977015568732</v>
       </c>
       <c r="F8" t="n">
-        <v>8.1e-05</v>
+        <v>0.01612692041598614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00012996</v>
+        <v>0.004575333446151922</v>
       </c>
       <c r="H8" t="n">
-        <v>1.369e-05</v>
+        <v>0.2274829643885722</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000144</v>
+        <v>0.01025549360046882</v>
       </c>
       <c r="J8" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.001534540975886219</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.003938144867261051</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.002045493038566864</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.001282415866411799</v>
+        <v>0.05135687493512518</v>
       </c>
     </row>
     <row r="9">
@@ -788,43 +691,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7991179554232115</v>
+        <v>0.202490770911542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1961901504258446</v>
+        <v>0.1144047663347814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002601</v>
+        <v>0.1847665303811825</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008281</v>
+        <v>0.196393829030489</v>
       </c>
       <c r="F9" t="n">
-        <v>8.1e-05</v>
+        <v>0.01046456878437583</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00012996</v>
+        <v>0.002783072242917513</v>
       </c>
       <c r="H9" t="n">
-        <v>1.369e-05</v>
+        <v>0.2317442778499249</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000144</v>
+        <v>0.006747572933055776</v>
       </c>
       <c r="J9" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0006069560091303877</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.001558487519163032</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.000879419481058187</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0005030636502326074</v>
+        <v>0.05020461153173113</v>
       </c>
     </row>
     <row r="10">
@@ -832,43 +723,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8008532311719837</v>
+        <v>0.2037922946267807</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1966143762973344</v>
+        <v>0.1159658609085533</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002601</v>
+        <v>0.1880185049579929</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008281</v>
+        <v>0.1954618791162292</v>
       </c>
       <c r="F10" t="n">
-        <v>8.1e-05</v>
+        <v>0.006699036742412655</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00012996</v>
+        <v>0.001683582372020196</v>
       </c>
       <c r="H10" t="n">
-        <v>1.369e-05</v>
+        <v>0.2345949536856869</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000144</v>
+        <v>0.004368570724755301</v>
       </c>
       <c r="J10" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0002361395786258684</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0004086065903450417</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0001858993277856112</v>
+        <v>0.04941531686556897</v>
       </c>
     </row>
     <row r="11">
@@ -876,43 +755,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8015250982379596</v>
+        <v>0.2046225970392352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.196772412044448</v>
+        <v>0.1169782344989499</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002601</v>
+        <v>0.1901342877277571</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008281</v>
+        <v>0.1948550599387888</v>
       </c>
       <c r="F11" t="n">
-        <v>8.1e-05</v>
+        <v>0.004248694989928523</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00012996</v>
+        <v>0.001014890800622008</v>
       </c>
       <c r="H11" t="n">
-        <v>1.369e-05</v>
+        <v>0.2364589998108935</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000144</v>
+        <v>0.00279709514741118</v>
       </c>
       <c r="J11" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0002359564445800481</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.00010609</v>
+        <v>0.04889014004641366</v>
       </c>
     </row>
     <row r="12">
@@ -920,43 +787,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8018230087631538</v>
+        <v>0.2051473813551042</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1968372993721568</v>
+        <v>0.1176254046751069</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002601</v>
+        <v>0.1914898210102152</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008281</v>
+        <v>0.1944653387357036</v>
       </c>
       <c r="F12" t="n">
-        <v>8.1e-05</v>
+        <v>0.002677965952939535</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00012996</v>
+        <v>0.0006104346674915345</v>
       </c>
       <c r="H12" t="n">
-        <v>1.369e-05</v>
+        <v>0.2376585094534543</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000144</v>
+        <v>0.001777645074096093</v>
       </c>
       <c r="J12" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.00010609</v>
+        <v>0.04854749907588862</v>
       </c>
     </row>
     <row r="13">
@@ -964,43 +819,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8018413834878358</v>
+        <v>0.2054770540194552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1968412468607178</v>
+        <v>0.1180351833171616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002601</v>
+        <v>0.1923494312831766</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008281</v>
+        <v>0.1942173843280255</v>
       </c>
       <c r="F13" t="n">
-        <v>8.1e-05</v>
+        <v>0.001681157740364078</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00012996</v>
+        <v>0.000366647054757908</v>
       </c>
       <c r="H13" t="n">
-        <v>1.369e-05</v>
+        <v>0.238422061447053</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000144</v>
+        <v>0.001124243604015329</v>
       </c>
       <c r="J13" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.00010609</v>
+        <v>0.04832683720599078</v>
       </c>
     </row>
     <row r="14">
@@ -1008,43 +851,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8018414080082282</v>
+        <v>0.2056833544131944</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1968412522760401</v>
+        <v>0.1182930477392327</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002601</v>
+        <v>0.1928909421414845</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008281</v>
+        <v>0.1940606059372876</v>
       </c>
       <c r="F14" t="n">
-        <v>8.1e-05</v>
+        <v>0.001052697416222774</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00012996</v>
+        <v>0.0002200229128568376</v>
       </c>
       <c r="H14" t="n">
-        <v>1.369e-05</v>
+        <v>0.238904645341795</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000144</v>
+        <v>0.0007087532006337389</v>
       </c>
       <c r="J14" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.00010609</v>
+        <v>0.04818593089729256</v>
       </c>
     </row>
     <row r="15">
@@ -1052,43 +883,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.80184140804099</v>
+        <v>0.2058121401858115</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1968412522832809</v>
+        <v>0.1184546790808476</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002601</v>
+        <v>0.1932306276092133</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008281</v>
+        <v>0.193961877364729</v>
       </c>
       <c r="F15" t="n">
-        <v>8.1e-05</v>
+        <v>0.0006581247799640782</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00012996</v>
+        <v>0.000131958124976071</v>
       </c>
       <c r="H15" t="n">
-        <v>1.369e-05</v>
+        <v>0.2392082495894173</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000144</v>
+        <v>0.000445895766372914</v>
       </c>
       <c r="J15" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.00010609</v>
+        <v>0.04809644749866799</v>
       </c>
     </row>
     <row r="16">
@@ -1096,43 +915,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2058924186882851</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1185557425962822</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002601</v>
+        <v>0.1934431471465631</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008281</v>
+        <v>0.1938998660267077</v>
       </c>
       <c r="F16" t="n">
-        <v>8.1e-05</v>
+        <v>0.0004110469921301615</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00012996</v>
+        <v>7.911128660025532e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>1.369e-05</v>
+        <v>0.2393986961360962</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000144</v>
+        <v>0.000280147572801109</v>
       </c>
       <c r="J16" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.00010609</v>
+        <v>0.04803982355453415</v>
       </c>
     </row>
     <row r="17">
@@ -1140,43 +947,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2059424173302697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1186188400117818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002601</v>
+        <v>0.1935758913643197</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008281</v>
+        <v>0.1938609811729125</v>
       </c>
       <c r="F17" t="n">
-        <v>8.1e-05</v>
+        <v>0.0002565808277335327</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00012996</v>
+        <v>4.74163391399319e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>1.369e-05</v>
+        <v>0.2395179415495245</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000144</v>
+        <v>0.000175854696445004</v>
       </c>
       <c r="J17" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.00010609</v>
+        <v>0.04800407670787347</v>
       </c>
     </row>
     <row r="18">
@@ -1184,43 +979,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2059735424997479</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1186581986602136</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002601</v>
+        <v>0.19365872540066</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008281</v>
+        <v>0.1938366236183006</v>
       </c>
       <c r="F18" t="n">
-        <v>8.1e-05</v>
+        <v>0.0001601083958764857</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00012996</v>
+        <v>2.841436875651002e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>1.369e-05</v>
+        <v>0.2395925204937434</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000144</v>
+        <v>0.0001103215679701228</v>
       </c>
       <c r="J18" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.00010609</v>
+        <v>0.04798154499473162</v>
       </c>
     </row>
     <row r="19">
@@ -1228,43 +1011,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2059929140552104</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1186827370511797</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002601</v>
+        <v>0.193710385600344</v>
       </c>
       <c r="E19" t="n">
-        <v>0.008281</v>
+        <v>0.1938213761493513</v>
       </c>
       <c r="F19" t="n">
-        <v>8.1e-05</v>
+        <v>9.989149410651908e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00012996</v>
+        <v>1.702508263316201e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>1.369e-05</v>
+        <v>0.2396391315115895</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000144</v>
+        <v>6.918084298848941e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.00010609</v>
+        <v>0.04796735821259704</v>
       </c>
     </row>
     <row r="20">
@@ -1272,43 +1043,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060049694540877</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1186980314750912</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002601</v>
+        <v>0.1937425939606842</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008281</v>
+        <v>0.193811835493534</v>
       </c>
       <c r="F20" t="n">
-        <v>8.1e-05</v>
+        <v>6.23173795648731e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00012996</v>
+        <v>1.019987510622425e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>1.369e-05</v>
+        <v>0.2396682507194836</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000144</v>
+        <v>4.336913544178918e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.00010609</v>
+        <v>0.04795843250700631</v>
       </c>
     </row>
     <row r="21">
@@ -1316,43 +1075,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060124719022036</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187075630759638</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002601</v>
+        <v>0.1937626717388077</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008281</v>
+        <v>0.1938058673181152</v>
       </c>
       <c r="F21" t="n">
-        <v>8.1e-05</v>
+        <v>3.887602137672968e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00012996</v>
+        <v>6.110311773804033e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>1.369e-05</v>
+        <v>0.2396864378781431</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000144</v>
+        <v>2.718174962833219e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.00010609</v>
+        <v>0.04795282000398767</v>
       </c>
     </row>
     <row r="22">
@@ -1360,43 +1107,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060171412154458</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187135030433839</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002601</v>
+        <v>0.193775187000737</v>
       </c>
       <c r="E22" t="n">
-        <v>0.008281</v>
+        <v>0.1938021345624456</v>
       </c>
       <c r="F22" t="n">
-        <v>8.1e-05</v>
+        <v>2.425280553776271e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00012996</v>
+        <v>3.660162363876948e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>1.369e-05</v>
+        <v>0.23969779561172</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000144</v>
+        <v>1.703321201409919e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.00010609</v>
+        <v>0.04794929238635205</v>
       </c>
     </row>
     <row r="23">
@@ -1404,43 +1139,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060200475525238</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187172048354993</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002601</v>
+        <v>0.1937829883124864</v>
       </c>
       <c r="E23" t="n">
-        <v>0.008281</v>
+        <v>0.1937998001994398</v>
       </c>
       <c r="F23" t="n">
-        <v>8.1e-05</v>
+        <v>1.513069825803585e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00012996</v>
+        <v>2.19234837775329e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397048879476715</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000144</v>
+        <v>1.067214667848457e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.00010609</v>
+        <v>0.04794707595906486</v>
       </c>
     </row>
     <row r="24">
@@ -1448,43 +1171,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060218567683448</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187195119246919</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002601</v>
+        <v>0.1937878514275573</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008281</v>
+        <v>0.1937983404638779</v>
       </c>
       <c r="F24" t="n">
-        <v>8.1e-05</v>
+        <v>9.440132688531074e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397093166391606</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000144</v>
+        <v>6.685781671066504e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.00010609</v>
+        <v>0.04794568377450129</v>
       </c>
     </row>
     <row r="25">
@@ -1492,43 +1203,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060229114349369</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187208840332259</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002601</v>
+        <v>0.1937907543655964</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008281</v>
+        <v>0.1937974215527072</v>
       </c>
       <c r="F25" t="n">
-        <v>8.1e-05</v>
+        <v>6.000468399801953e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397120382121542</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000144</v>
+        <v>4.087466615363254e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.00010609</v>
+        <v>0.04794474333763962</v>
       </c>
     </row>
     <row r="26">
@@ -1536,43 +1235,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060235538820173</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187217259569756</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002601</v>
+        <v>0.1937925379514303</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008281</v>
+        <v>0.1937968465534888</v>
       </c>
       <c r="F26" t="n">
-        <v>8.1e-05</v>
+        <v>3.877741852635998e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397137274442674</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000144</v>
+        <v>2.443144123883872e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.00010609</v>
+        <v>0.04794414157120998</v>
       </c>
     </row>
     <row r="27">
@@ -1580,43 +1267,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060239552633138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187222514193611</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002601</v>
+        <v>0.1937936509167459</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008281</v>
+        <v>0.1937964886851422</v>
       </c>
       <c r="F27" t="n">
-        <v>8.1e-05</v>
+        <v>2.553991556700876e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397147800050859</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000144</v>
+        <v>1.421368614747029e-06</v>
       </c>
       <c r="J27" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.00010609</v>
+        <v>0.04794376821165416</v>
       </c>
     </row>
     <row r="28">
@@ -1624,43 +1299,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060242064870439</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187225792500398</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002601</v>
+        <v>0.1937943448815776</v>
       </c>
       <c r="E28" t="n">
-        <v>0.008281</v>
+        <v>0.1937962673374867</v>
       </c>
       <c r="F28" t="n">
-        <v>8.1e-05</v>
+        <v>1.730210318162513e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397154333692097</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000144</v>
+        <v>7.925115119522847e-07</v>
       </c>
       <c r="J28" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.00010609</v>
+        <v>0.04794353953756306</v>
       </c>
     </row>
     <row r="29">
@@ -1668,43 +1331,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060243640823652</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187227833705807</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002601</v>
+        <v>0.1937947763852691</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008281</v>
+        <v>0.1937961323129767</v>
       </c>
       <c r="F29" t="n">
-        <v>8.1e-05</v>
+        <v>1.220334936820042e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397158353552212</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J29" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.00010609</v>
+        <v>0.04794340335262339</v>
       </c>
     </row>
     <row r="30">
@@ -1712,43 +1363,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060244595171134</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229033210602</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002601</v>
+        <v>0.1937950285440938</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008281</v>
+        <v>0.1937960596931444</v>
       </c>
       <c r="F30" t="n">
-        <v>8.1e-05</v>
+        <v>9.280341455524614e-07</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397160599618424</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J30" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.00010609</v>
+        <v>0.04794333822228727</v>
       </c>
     </row>
     <row r="31">
@@ -1756,43 +1395,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245135224728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229658480814</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002601</v>
+        <v>0.1937951578589672</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008281</v>
+        <v>0.1937960319774211</v>
       </c>
       <c r="F31" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397161595319967</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J31" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332673010929</v>
       </c>
     </row>
     <row r="32">
@@ -1800,43 +1427,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390135587</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953611062</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188959861</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188962774</v>
       </c>
       <c r="F32" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065270434</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J32" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.00010609</v>
+        <v>0.047943321305476</v>
       </c>
     </row>
     <row r="33">
@@ -1844,43 +1459,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390115623</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.118722995360014</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188942537</v>
       </c>
       <c r="E33" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188942538</v>
       </c>
       <c r="F33" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065332633</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J33" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130665267</v>
       </c>
     </row>
     <row r="34">
@@ -1888,43 +1491,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390101944</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953592257</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188929671</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008281</v>
+        <v>0.193796018892967</v>
       </c>
       <c r="F34" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065372048</v>
       </c>
       <c r="I34" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J34" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130744094</v>
       </c>
     </row>
     <row r="35">
@@ -1932,43 +1523,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390098717</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953590398</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188926635</v>
       </c>
       <c r="E35" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188926635</v>
       </c>
       <c r="F35" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065381346</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J35" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213076269</v>
       </c>
     </row>
     <row r="36">
@@ -1976,43 +1555,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390113891</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953599142</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002601</v>
+        <v>0.193795218894091</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008281</v>
+        <v>0.193796018894091</v>
       </c>
       <c r="F36" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065337623</v>
       </c>
       <c r="I36" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J36" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130675244</v>
       </c>
     </row>
     <row r="37">
@@ -2020,43 +1587,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390114454</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953599466</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188941437</v>
       </c>
       <c r="E37" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188941437</v>
       </c>
       <c r="F37" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065336003</v>
       </c>
       <c r="I37" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J37" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130672006</v>
       </c>
     </row>
     <row r="38">
@@ -2064,43 +1619,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390116349</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953600558</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188943221</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008281</v>
+        <v>0.193796018894322</v>
       </c>
       <c r="F38" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065330543</v>
       </c>
       <c r="I38" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J38" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130661086</v>
       </c>
     </row>
     <row r="39">
@@ -2108,43 +1651,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390121507</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953603531</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188948073</v>
       </c>
       <c r="E39" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188948073</v>
       </c>
       <c r="F39" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065315681</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J39" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130631362</v>
       </c>
     </row>
     <row r="40">
@@ -2152,43 +1683,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390122987</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953604383</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188949465</v>
       </c>
       <c r="E40" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188949464</v>
       </c>
       <c r="F40" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065311416</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J40" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130622831</v>
       </c>
     </row>
     <row r="41">
@@ -2196,43 +1715,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390100476</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953591411</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188928291</v>
       </c>
       <c r="E41" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188928291</v>
       </c>
       <c r="F41" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065376274</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J41" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130752549</v>
       </c>
     </row>
     <row r="42">
@@ -2240,43 +1747,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390090839</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953585858</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188919226</v>
       </c>
       <c r="E42" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188919226</v>
       </c>
       <c r="F42" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065404042</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J42" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130808085</v>
       </c>
     </row>
     <row r="43">
@@ -2284,43 +1779,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390096132</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953588909</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188924205</v>
       </c>
       <c r="E43" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188924205</v>
       </c>
       <c r="F43" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065388789</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J43" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130777578</v>
       </c>
     </row>
     <row r="44">
@@ -2328,43 +1811,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390094009</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953587685</v>
       </c>
       <c r="D44" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188922209</v>
       </c>
       <c r="E44" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188922209</v>
       </c>
       <c r="F44" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065394905</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J44" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130789811</v>
       </c>
     </row>
     <row r="45">
@@ -2372,43 +1843,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390091001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953585952</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002601</v>
+        <v>0.193795218891938</v>
       </c>
       <c r="E45" t="n">
-        <v>0.008281</v>
+        <v>0.193796018891938</v>
       </c>
       <c r="F45" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065403571</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J45" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130807143</v>
       </c>
     </row>
     <row r="46">
@@ -2416,43 +1875,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.801841408041034</v>
+        <v>0.206024539011181</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953597944</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188938955</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188938956</v>
       </c>
       <c r="F46" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065343612</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J46" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130687222</v>
       </c>
     </row>
     <row r="47">
@@ -2460,43 +1907,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390104439</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953593697</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188932023</v>
       </c>
       <c r="E47" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188932023</v>
       </c>
       <c r="F47" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065364845</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J47" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130729691</v>
       </c>
     </row>
     <row r="48">
@@ -2504,43 +1939,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.801841408041034</v>
+        <v>0.206024539010691</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953595121</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188934347</v>
       </c>
       <c r="E48" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188934347</v>
       </c>
       <c r="F48" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065357729</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J48" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130715458</v>
       </c>
     </row>
     <row r="49">
@@ -2548,43 +1971,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390100798</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953591598</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188928597</v>
       </c>
       <c r="E49" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188928597</v>
       </c>
       <c r="F49" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065375343</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J49" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130750686</v>
       </c>
     </row>
     <row r="50">
@@ -2592,43 +2003,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390106721</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953595011</v>
       </c>
       <c r="D50" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188934167</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188934167</v>
       </c>
       <c r="F50" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065358276</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J50" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130716551</v>
       </c>
     </row>
     <row r="51">
@@ -2636,43 +2035,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390095064</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953588295</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188923204</v>
       </c>
       <c r="E51" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188923204</v>
       </c>
       <c r="F51" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065391858</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J51" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130783717</v>
       </c>
     </row>
     <row r="52">
@@ -2680,43 +2067,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390103345</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953593066</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188930992</v>
       </c>
       <c r="E52" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188930992</v>
       </c>
       <c r="F52" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065368003</v>
       </c>
       <c r="I52" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J52" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130736007</v>
       </c>
     </row>
     <row r="53">
@@ -2724,43 +2099,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390085778</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953582943</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188914468</v>
       </c>
       <c r="E53" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188914468</v>
       </c>
       <c r="F53" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>1.369e-05</v>
+        <v>0.239716206541862</v>
       </c>
       <c r="I53" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J53" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130837239</v>
       </c>
     </row>
     <row r="54">
@@ -2768,43 +2131,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390109895</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.118722995359684</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188937153</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188937153</v>
       </c>
       <c r="F54" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H54" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065349132</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J54" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130698262</v>
       </c>
     </row>
     <row r="55">
@@ -2812,43 +2163,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390094039</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953587703</v>
       </c>
       <c r="D55" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188922238</v>
       </c>
       <c r="E55" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188922238</v>
       </c>
       <c r="F55" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H55" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065394816</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J55" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213078963</v>
       </c>
     </row>
     <row r="56">
@@ -2856,43 +2195,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390104144</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953593526</v>
       </c>
       <c r="D56" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188931742</v>
       </c>
       <c r="E56" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188931742</v>
       </c>
       <c r="F56" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G56" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065365704</v>
       </c>
       <c r="I56" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J56" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130731408</v>
       </c>
     </row>
     <row r="57">
@@ -2900,43 +2227,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390105542</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953594331</v>
       </c>
       <c r="D57" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188933058</v>
       </c>
       <c r="E57" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188933058</v>
       </c>
       <c r="F57" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H57" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065361674</v>
       </c>
       <c r="I57" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J57" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213072335</v>
       </c>
     </row>
     <row r="58">
@@ -2944,43 +2259,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390110855</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953597393</v>
       </c>
       <c r="D58" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188938056</v>
       </c>
       <c r="E58" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188938056</v>
       </c>
       <c r="F58" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065346366</v>
       </c>
       <c r="I58" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J58" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130692732</v>
       </c>
     </row>
     <row r="59">
@@ -2988,43 +2291,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390081999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953580765</v>
       </c>
       <c r="D59" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188910914</v>
       </c>
       <c r="E59" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188910914</v>
       </c>
       <c r="F59" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G59" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065429504</v>
       </c>
       <c r="I59" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J59" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130859007</v>
       </c>
     </row>
     <row r="60">
@@ -3032,43 +2323,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390106095</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953594651</v>
       </c>
       <c r="D60" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188933581</v>
       </c>
       <c r="E60" t="n">
-        <v>0.008281</v>
+        <v>0.193796018893358</v>
       </c>
       <c r="F60" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H60" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065360075</v>
       </c>
       <c r="I60" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J60" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213072015</v>
       </c>
     </row>
     <row r="61">
@@ -3076,43 +2355,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390100059</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953591172</v>
       </c>
       <c r="D61" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188927902</v>
       </c>
       <c r="E61" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188927902</v>
       </c>
       <c r="F61" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065377469</v>
       </c>
       <c r="I61" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J61" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213075494</v>
       </c>
     </row>
     <row r="62">
@@ -3120,43 +2387,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390101279</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953591876</v>
       </c>
       <c r="D62" t="n">
-        <v>0.002601</v>
+        <v>0.193795218892905</v>
       </c>
       <c r="E62" t="n">
-        <v>0.008281</v>
+        <v>0.193796018892905</v>
       </c>
       <c r="F62" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065373953</v>
       </c>
       <c r="I62" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J62" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130747905</v>
       </c>
     </row>
     <row r="63">
@@ -3164,43 +2419,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390097965</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953589965</v>
       </c>
       <c r="D63" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188925931</v>
       </c>
       <c r="E63" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188925931</v>
       </c>
       <c r="F63" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065383508</v>
       </c>
       <c r="I63" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J63" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130767015</v>
       </c>
     </row>
     <row r="64">
@@ -3208,43 +2451,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390101858</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953592209</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188929593</v>
       </c>
       <c r="E64" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188929593</v>
       </c>
       <c r="F64" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G64" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065372289</v>
       </c>
       <c r="I64" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J64" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130744579</v>
       </c>
     </row>
     <row r="65">
@@ -3252,43 +2483,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390092465</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953586796</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188920758</v>
       </c>
       <c r="E65" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188920758</v>
       </c>
       <c r="F65" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065399351</v>
       </c>
       <c r="I65" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J65" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.00010609</v>
+        <v>0.047943321307987</v>
       </c>
     </row>
     <row r="66">
@@ -3296,43 +2515,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390110532</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953597207</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188937753</v>
       </c>
       <c r="E66" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188937753</v>
       </c>
       <c r="F66" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H66" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065347295</v>
       </c>
       <c r="I66" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J66" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130694588</v>
       </c>
     </row>
     <row r="67">
@@ -3340,43 +2547,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390114987</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953599775</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188941944</v>
       </c>
       <c r="E67" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188941944</v>
       </c>
       <c r="F67" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G67" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H67" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065334457</v>
       </c>
       <c r="I67" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J67" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130668916</v>
       </c>
     </row>
     <row r="68">
@@ -3384,43 +2579,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390129813</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953608318</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188955889</v>
       </c>
       <c r="E68" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188955889</v>
       </c>
       <c r="F68" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H68" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065291742</v>
       </c>
       <c r="I68" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J68" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130583485</v>
       </c>
     </row>
     <row r="69">
@@ -3428,43 +2611,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390111414</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953597715</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188938581</v>
       </c>
       <c r="E69" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188938581</v>
       </c>
       <c r="F69" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H69" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065344756</v>
       </c>
       <c r="I69" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J69" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130689512</v>
       </c>
     </row>
     <row r="70">
@@ -3472,43 +2643,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.801841408041034</v>
+        <v>0.206024539012521</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953605665</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188951559</v>
       </c>
       <c r="E70" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188951559</v>
       </c>
       <c r="F70" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G70" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H70" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065305007</v>
       </c>
       <c r="I70" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J70" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130610011</v>
       </c>
     </row>
     <row r="71">
@@ -3516,43 +2675,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390115982</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953600348</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188942879</v>
       </c>
       <c r="E71" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188942879</v>
       </c>
       <c r="F71" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G71" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H71" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065331593</v>
       </c>
       <c r="I71" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J71" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130663187</v>
       </c>
     </row>
     <row r="72">
@@ -3560,43 +2707,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.801841408041034</v>
+        <v>0.206024539012489</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953605482</v>
       </c>
       <c r="D72" t="n">
-        <v>0.002601</v>
+        <v>0.193795218895126</v>
       </c>
       <c r="E72" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188951259</v>
       </c>
       <c r="F72" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G72" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H72" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065305923</v>
       </c>
       <c r="I72" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J72" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130611847</v>
       </c>
     </row>
     <row r="73">
@@ -3604,43 +2739,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390118158</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953601603</v>
       </c>
       <c r="D73" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188944927</v>
       </c>
       <c r="E73" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188944927</v>
       </c>
       <c r="F73" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G73" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H73" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065325321</v>
       </c>
       <c r="I73" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J73" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130650642</v>
       </c>
     </row>
     <row r="74">
@@ -3648,43 +2771,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390096364</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953589044</v>
       </c>
       <c r="D74" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188924429</v>
       </c>
       <c r="E74" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188924429</v>
       </c>
       <c r="F74" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G74" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H74" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065388111</v>
       </c>
       <c r="I74" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J74" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130776222</v>
       </c>
     </row>
     <row r="75">
@@ -3692,43 +2803,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390103515</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953593165</v>
       </c>
       <c r="D75" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188931156</v>
       </c>
       <c r="E75" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188931156</v>
       </c>
       <c r="F75" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G75" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H75" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065367504</v>
       </c>
       <c r="I75" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J75" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130735008</v>
       </c>
     </row>
     <row r="76">
@@ -3736,43 +2835,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390105707</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953594429</v>
       </c>
       <c r="D76" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188933219</v>
       </c>
       <c r="E76" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188933219</v>
       </c>
       <c r="F76" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G76" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H76" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065361189</v>
       </c>
       <c r="I76" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J76" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130722376</v>
       </c>
     </row>
     <row r="77">
@@ -3780,43 +2867,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390095166</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953588355</v>
       </c>
       <c r="D77" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188923305</v>
       </c>
       <c r="E77" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188923305</v>
       </c>
       <c r="F77" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065391555</v>
       </c>
       <c r="I77" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J77" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213078311</v>
       </c>
     </row>
     <row r="78">
@@ -3824,43 +2899,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390113476</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953598907</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188940529</v>
       </c>
       <c r="E78" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188940529</v>
       </c>
       <c r="F78" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H78" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065338801</v>
       </c>
       <c r="I78" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J78" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130677602</v>
       </c>
     </row>
     <row r="79">
@@ -3868,43 +2931,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390115822</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953600259</v>
       </c>
       <c r="D79" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188942735</v>
       </c>
       <c r="E79" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188942736</v>
       </c>
       <c r="F79" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H79" t="n">
-        <v>1.369e-05</v>
+        <v>0.239716206533204</v>
       </c>
       <c r="I79" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J79" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213066408</v>
       </c>
     </row>
     <row r="80">
@@ -3912,43 +2963,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.801841408041034</v>
+        <v>0.206024539012066</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953603046</v>
       </c>
       <c r="D80" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188947286</v>
       </c>
       <c r="E80" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188947286</v>
       </c>
       <c r="F80" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H80" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065318099</v>
       </c>
       <c r="I80" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J80" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.00010609</v>
+        <v>0.047943321306362</v>
       </c>
     </row>
     <row r="81">
@@ -3956,43 +2995,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390114698</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953599611</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188941677</v>
       </c>
       <c r="E81" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188941678</v>
       </c>
       <c r="F81" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G81" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H81" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065335279</v>
       </c>
       <c r="I81" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J81" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130670558</v>
       </c>
     </row>
     <row r="82">
@@ -4000,43 +3027,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390121437</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953603494</v>
       </c>
       <c r="D82" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188948016</v>
       </c>
       <c r="E82" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188948016</v>
       </c>
       <c r="F82" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G82" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H82" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065315864</v>
       </c>
       <c r="I82" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J82" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130631729</v>
       </c>
     </row>
     <row r="83">
@@ -4044,43 +3059,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390130877</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953608934</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188956897</v>
       </c>
       <c r="E83" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188956898</v>
       </c>
       <c r="F83" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G83" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H83" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065288661</v>
       </c>
       <c r="I83" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J83" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130577322</v>
       </c>
     </row>
     <row r="84">
@@ -4088,43 +3091,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390121489</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953603525</v>
       </c>
       <c r="D84" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188948067</v>
       </c>
       <c r="E84" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188948067</v>
       </c>
       <c r="F84" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G84" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H84" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065315709</v>
       </c>
       <c r="I84" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J84" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130631417</v>
       </c>
     </row>
     <row r="85">
@@ -4132,43 +3123,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390093649</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953587482</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002601</v>
+        <v>0.193795218892188</v>
       </c>
       <c r="E85" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188921879</v>
       </c>
       <c r="F85" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G85" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065395924</v>
       </c>
       <c r="I85" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J85" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213079185</v>
       </c>
     </row>
     <row r="86">
@@ -4176,43 +3155,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390085741</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953582925</v>
       </c>
       <c r="D86" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188914442</v>
       </c>
       <c r="E86" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188914442</v>
       </c>
       <c r="F86" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G86" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H86" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065418706</v>
       </c>
       <c r="I86" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J86" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130837411</v>
       </c>
     </row>
     <row r="87">
@@ -4220,43 +3187,31 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390098449</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953590247</v>
       </c>
       <c r="D87" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188926394</v>
       </c>
       <c r="E87" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188926393</v>
       </c>
       <c r="F87" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G87" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065382097</v>
       </c>
       <c r="I87" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J87" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130764193</v>
       </c>
     </row>
     <row r="88">
@@ -4264,43 +3219,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390087678</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953584039</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002601</v>
+        <v>0.193795218891626</v>
       </c>
       <c r="E88" t="n">
-        <v>0.008281</v>
+        <v>0.193796018891626</v>
       </c>
       <c r="F88" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G88" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065413135</v>
       </c>
       <c r="I88" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J88" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213082627</v>
       </c>
     </row>
     <row r="89">
@@ -4308,43 +3251,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390085694</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953582897</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188914395</v>
       </c>
       <c r="E89" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188914395</v>
       </c>
       <c r="F89" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G89" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065418849</v>
       </c>
       <c r="I89" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J89" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130837696</v>
       </c>
     </row>
     <row r="90">
@@ -4352,43 +3283,31 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390104322</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953593631</v>
       </c>
       <c r="D90" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188931917</v>
       </c>
       <c r="E90" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188931916</v>
       </c>
       <c r="F90" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G90" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H90" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065365176</v>
       </c>
       <c r="I90" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J90" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213073035</v>
       </c>
     </row>
     <row r="91">
@@ -4396,43 +3315,31 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390127483</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953606978</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188953703</v>
       </c>
       <c r="E91" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188953703</v>
       </c>
       <c r="F91" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G91" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H91" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065298443</v>
       </c>
       <c r="I91" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J91" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130596886</v>
       </c>
     </row>
     <row r="92">
@@ -4440,43 +3347,31 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390129371</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953608066</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002601</v>
+        <v>0.193795218895548</v>
       </c>
       <c r="E92" t="n">
-        <v>0.008281</v>
+        <v>0.193796018895548</v>
       </c>
       <c r="F92" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G92" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H92" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065293004</v>
       </c>
       <c r="I92" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J92" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130586007</v>
       </c>
     </row>
     <row r="93">
@@ -4484,43 +3379,31 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390130706</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953608836</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188956736</v>
       </c>
       <c r="E93" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188956737</v>
       </c>
       <c r="F93" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G93" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H93" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065289154</v>
       </c>
       <c r="I93" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J93" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130578307</v>
       </c>
     </row>
     <row r="94">
@@ -4528,43 +3411,31 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390118939</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953602054</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188945667</v>
       </c>
       <c r="E94" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188945667</v>
       </c>
       <c r="F94" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H94" t="n">
-        <v>1.369e-05</v>
+        <v>0.239716206532306</v>
       </c>
       <c r="I94" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J94" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213064612</v>
       </c>
     </row>
     <row r="95">
@@ -4572,43 +3443,31 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390128579</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953607609</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188954734</v>
       </c>
       <c r="E95" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188954734</v>
       </c>
       <c r="F95" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H95" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065295287</v>
       </c>
       <c r="I95" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J95" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130590574</v>
       </c>
     </row>
     <row r="96">
@@ -4616,43 +3475,31 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390120171</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953602765</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188946826</v>
       </c>
       <c r="E96" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188946826</v>
       </c>
       <c r="F96" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H96" t="n">
-        <v>1.369e-05</v>
+        <v>0.239716206531951</v>
       </c>
       <c r="I96" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J96" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.00010609</v>
+        <v>0.0479433213063902</v>
       </c>
     </row>
     <row r="97">
@@ -4660,43 +3507,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390108702</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953596155</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188936037</v>
       </c>
       <c r="E97" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188936036</v>
       </c>
       <c r="F97" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G97" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H97" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065352557</v>
       </c>
       <c r="I97" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J97" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130705113</v>
       </c>
     </row>
     <row r="98">
@@ -4704,43 +3539,31 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390107812</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953595643</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002601</v>
+        <v>0.19379521889352</v>
       </c>
       <c r="E98" t="n">
-        <v>0.008281</v>
+        <v>0.19379601889352</v>
       </c>
       <c r="F98" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G98" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H98" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065355121</v>
       </c>
       <c r="I98" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J98" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130710242</v>
       </c>
     </row>
     <row r="99">
@@ -4748,43 +3571,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.206024539009649</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953589117</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188924549</v>
       </c>
       <c r="E99" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188924548</v>
       </c>
       <c r="F99" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G99" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065387747</v>
       </c>
       <c r="I99" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J99" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130775493</v>
       </c>
     </row>
     <row r="100">
@@ -4792,43 +3603,31 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390080155</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953579705</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188909183</v>
       </c>
       <c r="E100" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188909184</v>
       </c>
       <c r="F100" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G100" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H100" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065434809</v>
       </c>
       <c r="I100" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J100" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130869618</v>
       </c>
     </row>
     <row r="101">
@@ -4836,43 +3635,31 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8018414080410337</v>
+        <v>0.2060245390096057</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953588868</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188924141</v>
       </c>
       <c r="E101" t="n">
-        <v>0.008281</v>
+        <v>0.193796018892414</v>
       </c>
       <c r="F101" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G101" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H101" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065388996</v>
       </c>
       <c r="I101" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J101" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130777992</v>
       </c>
     </row>
     <row r="102">
@@ -4880,43 +3667,31 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.801841408041034</v>
+        <v>0.2060245390090622</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1968412522832906</v>
+        <v>0.1187229953585736</v>
       </c>
       <c r="D102" t="n">
-        <v>0.002601</v>
+        <v>0.1937952188919028</v>
       </c>
       <c r="E102" t="n">
-        <v>0.008281</v>
+        <v>0.1937960188919029</v>
       </c>
       <c r="F102" t="n">
-        <v>8.1e-05</v>
+        <v>8.1e-07</v>
       </c>
       <c r="G102" t="n">
-        <v>0.00012996</v>
+        <v>1.96e-06</v>
       </c>
       <c r="H102" t="n">
-        <v>1.369e-05</v>
+        <v>0.2397162065404654</v>
       </c>
       <c r="I102" t="n">
-        <v>0.000144</v>
+        <v>4.9e-07</v>
       </c>
       <c r="J102" t="n">
-        <v>2.916e-05</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.000144</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.000961</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.00022801</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.00010609</v>
+        <v>0.04794332130809308</v>
       </c>
     </row>
   </sheetData>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,40 +458,34 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3">
@@ -499,31 +493,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.16642450699947</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07896374568854957</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1141971107216389</v>
+        <v>1e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>0.218651903277301</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09400931330009588</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0436958764478375</v>
+        <v>1e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1695747884214593</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05127041656504472</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06321233857860313</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -531,31 +522,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1777663696296475</v>
+        <v>0.1666666668463422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08883571636356745</v>
+        <v>0.1666666668463422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1332061060940948</v>
+        <v>1e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2120579367596608</v>
+        <v>0.166666666603258</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07096664759900934</v>
+        <v>0.166666666603258</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02924704783967755</v>
+        <v>1e-08</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1868024877373533</v>
+        <v>0.1666666665503997</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04057275754605737</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.06054493043093202</v>
+        <v>0.1666666665503997</v>
       </c>
     </row>
     <row r="5">
@@ -563,31 +551,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1865146417880599</v>
+        <v>0.1666666670774765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09715143936479646</v>
+        <v>0.1666666670774765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1496212775179613</v>
+        <v>1e-08</v>
       </c>
       <c r="E5" t="n">
-        <v>0.206797416407086</v>
+        <v>0.1666666663500727</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05145852500021227</v>
+        <v>0.1666666663500727</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01897040409404135</v>
+        <v>1e-08</v>
       </c>
       <c r="H5" t="n">
-        <v>0.201248217126889</v>
+        <v>0.1666666665724509</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03053809517536664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.05769998352558731</v>
+        <v>0.1666666665724509</v>
       </c>
     </row>
     <row r="6">
@@ -595,31 +580,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1929272522990622</v>
+        <v>0.1666666670458929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1037096130168402</v>
+        <v>0.1666666670458929</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1628104063925695</v>
+        <v>1e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2027881219997262</v>
+        <v>0.1666666662906614</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03597994404644102</v>
+        <v>0.1666666662906614</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01200378660968639</v>
+        <v>1e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>0.212697445908082</v>
+        <v>0.1666666666634457</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0219825076201665</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.05510092210742584</v>
+        <v>0.1666666666634457</v>
       </c>
     </row>
     <row r="7">
@@ -627,31 +609,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1974282333147882</v>
+        <v>0.166666666822378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1085892781801451</v>
+        <v>0.166666666822378</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1727590787929686</v>
+        <v>1e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1998586452996905</v>
+        <v>0.1666666663519266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0243896098560497</v>
+        <v>0.1666666663519266</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007458177610282225</v>
+        <v>1e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2213062087353955</v>
+        <v>0.1666666668256954</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01524060774956421</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.05297016046111581</v>
+        <v>0.1666666668256954</v>
       </c>
     </row>
     <row r="8">
@@ -659,31 +638,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2004785417702415</v>
+        <v>0.1666666676907142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1120472687919148</v>
+        <v>0.1666666676907143</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1798789010946663</v>
+        <v>1e-08</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1977977015568732</v>
+        <v>0.1666666660406515</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01612692041598614</v>
+        <v>0.1666666660406515</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004575333446151922</v>
+        <v>1e-08</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2274829643885722</v>
+        <v>0.1666666662686343</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01025549360046882</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.05135687493512518</v>
+        <v>0.1666666662686343</v>
       </c>
     </row>
     <row r="9">
@@ -691,31 +667,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.202490770911542</v>
+        <v>0.1666666685403378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1144047663347814</v>
+        <v>0.1666666685403378</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1847665303811825</v>
+        <v>1e-08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.196393829030489</v>
+        <v>0.1666666657970236</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01046456878437583</v>
+        <v>0.1666666657970236</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002783072242917513</v>
+        <v>1e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2317442778499249</v>
+        <v>0.1666666656626386</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006747572933055776</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.05020461153173113</v>
+        <v>0.1666666656626386</v>
       </c>
     </row>
     <row r="10">
@@ -723,31 +696,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2037922946267807</v>
+        <v>0.1666666685591774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1159658609085533</v>
+        <v>0.1666666685591775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1880185049579929</v>
+        <v>1e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1954618791162292</v>
+        <v>0.1666666655237857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006699036742412655</v>
+        <v>0.1666666655237856</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001683582372020196</v>
+        <v>1e-08</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2345949536856869</v>
+        <v>0.1666666659170369</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004368570724755301</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.04941531686556897</v>
+        <v>0.1666666659170369</v>
       </c>
     </row>
     <row r="11">
@@ -755,31 +725,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2046225970392352</v>
+        <v>0.1666666684288755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1169782344989499</v>
+        <v>0.1666666684288755</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1901342877277571</v>
+        <v>1e-08</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1948550599387888</v>
+        <v>0.1666666657354895</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004248694989928523</v>
+        <v>0.1666666657354895</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001014890800622008</v>
+        <v>1e-08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2364589998108935</v>
+        <v>0.1666666658356349</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00279709514741118</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.04889014004641366</v>
+        <v>0.1666666658356349</v>
       </c>
     </row>
     <row r="12">
@@ -787,31 +754,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2051473813551042</v>
+        <v>0.1666666683719295</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1176254046751069</v>
+        <v>0.1666666683719295</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1914898210102152</v>
+        <v>1e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1944653387357036</v>
+        <v>0.1666666654488878</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002677965952939535</v>
+        <v>0.1666666654488878</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0006104346674915345</v>
+        <v>1e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2376585094534543</v>
+        <v>0.1666666661791826</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001777645074096093</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.04854749907588862</v>
+        <v>0.1666666661791827</v>
       </c>
     </row>
     <row r="13">
@@ -819,31 +783,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2054770540194552</v>
+        <v>0.1666666689553275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1180351833171616</v>
+        <v>0.1666666689553276</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1923494312831766</v>
+        <v>1e-08</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1942173843280255</v>
+        <v>0.1666666651127111</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001681157740364078</v>
+        <v>0.1666666651127111</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000366647054757908</v>
+        <v>1e-08</v>
       </c>
       <c r="H13" t="n">
-        <v>0.238422061447053</v>
+        <v>0.1666666659319614</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001124243604015329</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.04832683720599078</v>
+        <v>0.1666666659319614</v>
       </c>
     </row>
     <row r="14">
@@ -851,31 +812,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2056833544131944</v>
+        <v>0.1666666691902599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1182930477392327</v>
+        <v>0.1666666691902599</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1928909421414845</v>
+        <v>1e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1940606059372876</v>
+        <v>0.1666666653878668</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001052697416222774</v>
+        <v>0.1666666653878668</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002200229128568376</v>
+        <v>1e-08</v>
       </c>
       <c r="H14" t="n">
-        <v>0.238904645341795</v>
+        <v>0.1666666654218733</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0007087532006337389</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.04818593089729256</v>
+        <v>0.1666666654218733</v>
       </c>
     </row>
     <row r="15">
@@ -883,31 +841,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2058121401858115</v>
+        <v>0.1666666691142502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1184546790808476</v>
+        <v>0.1666666691142502</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1932306276092133</v>
+        <v>1e-08</v>
       </c>
       <c r="E15" t="n">
-        <v>0.193961877364729</v>
+        <v>0.1666666653840904</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0006581247799640782</v>
+        <v>0.1666666653840904</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000131958124976071</v>
+        <v>1e-08</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2392082495894173</v>
+        <v>0.1666666655016593</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000445895766372914</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.04809644749866799</v>
+        <v>0.1666666655016593</v>
       </c>
     </row>
     <row r="16">
@@ -915,31 +870,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2058924186882851</v>
+        <v>0.1666666688916564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1185557425962822</v>
+        <v>0.1666666688916564</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1934431471465631</v>
+        <v>1e-08</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1938998660267077</v>
+        <v>0.1666666655413603</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0004110469921301615</v>
+        <v>0.1666666655413603</v>
       </c>
       <c r="G16" t="n">
-        <v>7.911128660025532e-05</v>
+        <v>1e-08</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2393986961360962</v>
+        <v>0.1666666655669833</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000280147572801109</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.04803982355453415</v>
+        <v>0.1666666655669833</v>
       </c>
     </row>
     <row r="17">
@@ -947,31 +899,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2059424173302697</v>
+        <v>0.1666666693210448</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1186188400117818</v>
+        <v>0.1666666693210448</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1935758913643197</v>
+        <v>1e-08</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1938609811729125</v>
+        <v>0.1666666654524317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0002565808277335327</v>
+        <v>0.1666666654524317</v>
       </c>
       <c r="G17" t="n">
-        <v>4.74163391399319e-05</v>
+        <v>1e-08</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2395179415495245</v>
+        <v>0.1666666652265235</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000175854696445004</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.04800407670787347</v>
+        <v>0.1666666652265235</v>
       </c>
     </row>
     <row r="18">
@@ -979,31 +928,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2059735424997479</v>
+        <v>0.1666666697236142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1186581986602136</v>
+        <v>0.1666666697236142</v>
       </c>
       <c r="D18" t="n">
-        <v>0.19365872540066</v>
+        <v>1e-08</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1938366236183006</v>
+        <v>0.1666666651760834</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001601083958764857</v>
+        <v>0.1666666651760834</v>
       </c>
       <c r="G18" t="n">
-        <v>2.841436875651002e-05</v>
+        <v>1e-08</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2395925204937434</v>
+        <v>0.1666666651003024</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001103215679701228</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.04798154499473162</v>
+        <v>0.1666666651003024</v>
       </c>
     </row>
     <row r="19">
@@ -1011,31 +957,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2059929140552104</v>
+        <v>0.1666666702881645</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1186827370511797</v>
+        <v>0.1666666702881645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.193710385600344</v>
+        <v>1e-08</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1938213761493513</v>
+        <v>0.1666666650494491</v>
       </c>
       <c r="F19" t="n">
-        <v>9.989149410651908e-05</v>
+        <v>0.1666666650494491</v>
       </c>
       <c r="G19" t="n">
-        <v>1.702508263316201e-05</v>
+        <v>1e-08</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2396391315115895</v>
+        <v>0.1666666646623864</v>
       </c>
       <c r="I19" t="n">
-        <v>6.918084298848941e-05</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.04796735821259704</v>
+        <v>0.1666666646623864</v>
       </c>
     </row>
     <row r="20">
@@ -1043,31 +986,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2060049694540877</v>
+        <v>0.1666666704607377</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1186980314750912</v>
+        <v>0.1666666704607377</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1937425939606842</v>
+        <v>1e-08</v>
       </c>
       <c r="E20" t="n">
-        <v>0.193811835493534</v>
+        <v>0.1666666650662711</v>
       </c>
       <c r="F20" t="n">
-        <v>6.23173795648731e-05</v>
+        <v>0.1666666650662711</v>
       </c>
       <c r="G20" t="n">
-        <v>1.019987510622425e-05</v>
+        <v>1e-08</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2396682507194836</v>
+        <v>0.1666666644729912</v>
       </c>
       <c r="I20" t="n">
-        <v>4.336913544178918e-05</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.04795843250700631</v>
+        <v>0.1666666644729912</v>
       </c>
     </row>
     <row r="21">
@@ -1075,31 +1015,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2060124719022036</v>
+        <v>0.1666666705733126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1187075630759638</v>
+        <v>0.1666666705733126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1937626717388077</v>
+        <v>1e-08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1938058673181152</v>
+        <v>0.1666666649256895</v>
       </c>
       <c r="F21" t="n">
-        <v>3.887602137672968e-05</v>
+        <v>0.1666666649256895</v>
       </c>
       <c r="G21" t="n">
-        <v>6.110311773804033e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2396864378781431</v>
+        <v>0.1666666645009979</v>
       </c>
       <c r="I21" t="n">
-        <v>2.718174962833219e-05</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.04795282000398767</v>
+        <v>0.1666666645009979</v>
       </c>
     </row>
     <row r="22">
@@ -1107,31 +1044,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2060171412154458</v>
+        <v>0.1666666706866034</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1187135030433839</v>
+        <v>0.1666666706866034</v>
       </c>
       <c r="D22" t="n">
-        <v>0.193775187000737</v>
+        <v>1e-08</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1938021345624456</v>
+        <v>0.1666666647442809</v>
       </c>
       <c r="F22" t="n">
-        <v>2.425280553776271e-05</v>
+        <v>0.1666666647442809</v>
       </c>
       <c r="G22" t="n">
-        <v>3.660162363876948e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H22" t="n">
-        <v>0.23969779561172</v>
+        <v>0.1666666645691156</v>
       </c>
       <c r="I22" t="n">
-        <v>1.703321201409919e-05</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.04794929238635205</v>
+        <v>0.1666666645691156</v>
       </c>
     </row>
     <row r="23">
@@ -1139,31 +1073,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2060200475525238</v>
+        <v>0.1666666706268218</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1187172048354993</v>
+        <v>0.1666666706268218</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1937829883124864</v>
+        <v>1e-08</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1937998001994398</v>
+        <v>0.1666666648291675</v>
       </c>
       <c r="F23" t="n">
-        <v>1.513069825803585e-05</v>
+        <v>0.1666666648291675</v>
       </c>
       <c r="G23" t="n">
-        <v>2.19234837775329e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2397048879476715</v>
+        <v>0.1666666645440107</v>
       </c>
       <c r="I23" t="n">
-        <v>1.067214667848457e-05</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.04794707595906486</v>
+        <v>0.1666666645440107</v>
       </c>
     </row>
     <row r="24">
@@ -1171,31 +1102,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2060218567683448</v>
+        <v>0.1666666701051475</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1187195119246919</v>
+        <v>0.1666666701051475</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1937878514275573</v>
+        <v>1e-08</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1937983404638779</v>
+        <v>0.166666664781567</v>
       </c>
       <c r="F24" t="n">
-        <v>9.440132688531074e-06</v>
+        <v>0.166666664781567</v>
       </c>
       <c r="G24" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2397093166391606</v>
+        <v>0.1666666651132855</v>
       </c>
       <c r="I24" t="n">
-        <v>6.685781671066504e-06</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.04794568377450129</v>
+        <v>0.1666666651132855</v>
       </c>
     </row>
     <row r="25">
@@ -1203,31 +1131,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2060229114349369</v>
+        <v>0.1666666706086149</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1187208840332259</v>
+        <v>0.1666666706086149</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1937907543655964</v>
+        <v>1e-08</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1937974215527072</v>
+        <v>0.1666666646029268</v>
       </c>
       <c r="F25" t="n">
-        <v>6.000468399801953e-06</v>
+        <v>0.1666666646029268</v>
       </c>
       <c r="G25" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2397120382121542</v>
+        <v>0.1666666647884582</v>
       </c>
       <c r="I25" t="n">
-        <v>4.087466615363254e-06</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.04794474333763962</v>
+        <v>0.1666666647884582</v>
       </c>
     </row>
     <row r="26">
@@ -1235,31 +1160,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2060235538820173</v>
+        <v>0.1666666706287742</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1187217259569756</v>
+        <v>0.1666666706287742</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1937925379514303</v>
+        <v>1e-08</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1937968465534888</v>
+        <v>0.1666666649034988</v>
       </c>
       <c r="F26" t="n">
-        <v>3.877741852635998e-06</v>
+        <v>0.1666666649034988</v>
       </c>
       <c r="G26" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2397137274442674</v>
+        <v>0.1666666644677269</v>
       </c>
       <c r="I26" t="n">
-        <v>2.443144123883872e-06</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.04794414157120998</v>
+        <v>0.1666666644677269</v>
       </c>
     </row>
     <row r="27">
@@ -1267,31 +1189,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2060239552633138</v>
+        <v>0.1666666701019534</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1187222514193611</v>
+        <v>0.1666666701019534</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1937936509167459</v>
+        <v>1e-08</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1937964886851422</v>
+        <v>0.1666666652048744</v>
       </c>
       <c r="F27" t="n">
-        <v>2.553991556700876e-06</v>
+        <v>0.1666666652048745</v>
       </c>
       <c r="G27" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2397147800050859</v>
+        <v>0.1666666646931722</v>
       </c>
       <c r="I27" t="n">
-        <v>1.421368614747029e-06</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.04794376821165416</v>
+        <v>0.1666666646931721</v>
       </c>
     </row>
     <row r="28">
@@ -1299,31 +1218,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2060242064870439</v>
+        <v>0.1666666713551374</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1187225792500398</v>
+        <v>0.1666666713551374</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1937943448815776</v>
+        <v>1e-08</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1937962673374867</v>
+        <v>0.1666666647773506</v>
       </c>
       <c r="F28" t="n">
-        <v>1.730210318162513e-06</v>
+        <v>0.1666666647773506</v>
       </c>
       <c r="G28" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2397154333692097</v>
+        <v>0.1666666638675119</v>
       </c>
       <c r="I28" t="n">
-        <v>7.925115119522847e-07</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.04794353953756306</v>
+        <v>0.1666666638675119</v>
       </c>
     </row>
     <row r="29">
@@ -1331,31 +1247,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2060243640823652</v>
+        <v>0.1666666715803209</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1187227833705807</v>
+        <v>0.1666666715803209</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1937947763852691</v>
+        <v>1e-08</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1937961323129767</v>
+        <v>0.1666666645536425</v>
       </c>
       <c r="F29" t="n">
-        <v>1.220334936820042e-06</v>
+        <v>0.1666666645536425</v>
       </c>
       <c r="G29" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2397158353552212</v>
+        <v>0.1666666638660367</v>
       </c>
       <c r="I29" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.04794340335262339</v>
+        <v>0.1666666638660366</v>
       </c>
     </row>
     <row r="30">
@@ -1363,31 +1276,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2060244595171134</v>
+        <v>0.1666666709068901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1187229033210602</v>
+        <v>0.16666667090689</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1937950285440938</v>
+        <v>1e-08</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1937960596931444</v>
+        <v>0.1666666649195594</v>
       </c>
       <c r="F30" t="n">
-        <v>9.280341455524614e-07</v>
+        <v>0.1666666649195594</v>
       </c>
       <c r="G30" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2397160599618424</v>
+        <v>0.1666666641735506</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.04794333822228727</v>
+        <v>0.1666666641735506</v>
       </c>
     </row>
     <row r="31">
@@ -1395,31 +1305,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2060245135224728</v>
+        <v>0.166666671562781</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1187229658480814</v>
+        <v>0.1666666715627809</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1937951578589672</v>
+        <v>1e-08</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1937960319774211</v>
+        <v>0.1666666647930308</v>
       </c>
       <c r="F31" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666647930309</v>
       </c>
       <c r="G31" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2397161595319967</v>
+        <v>0.1666666636441882</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.04794332673010929</v>
+        <v>0.1666666636441882</v>
       </c>
     </row>
     <row r="32">
@@ -1427,31 +1334,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2060245390135587</v>
+        <v>0.166666672313811</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1187229953611062</v>
+        <v>0.166666672313811</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1937952188959861</v>
+        <v>1e-08</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1937960188962774</v>
+        <v>0.1666666643932727</v>
       </c>
       <c r="F32" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666643932727</v>
       </c>
       <c r="G32" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2397162065270434</v>
+        <v>0.1666666632929163</v>
       </c>
       <c r="I32" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.047943321305476</v>
+        <v>0.1666666632929163</v>
       </c>
     </row>
     <row r="33">
@@ -1459,31 +1363,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2060245390115623</v>
+        <v>0.1666666716818143</v>
       </c>
       <c r="C33" t="n">
-        <v>0.118722995360014</v>
+        <v>0.1666666716818143</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1937952188942537</v>
+        <v>1e-08</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1937960188942538</v>
+        <v>0.1666666646233147</v>
       </c>
       <c r="F33" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666646233147</v>
       </c>
       <c r="G33" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2397162065332633</v>
+        <v>0.1666666636948709</v>
       </c>
       <c r="I33" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.04794332130665267</v>
+        <v>0.1666666636948709</v>
       </c>
     </row>
     <row r="34">
@@ -1491,31 +1392,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2060245390101944</v>
+        <v>0.1666666718484552</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1187229953592257</v>
+        <v>0.1666666718484552</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1937952188929671</v>
+        <v>1e-08</v>
       </c>
       <c r="E34" t="n">
-        <v>0.193796018892967</v>
+        <v>0.1666666645698616</v>
       </c>
       <c r="F34" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666645698616</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2397162065372048</v>
+        <v>0.1666666635816832</v>
       </c>
       <c r="I34" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.04794332130744094</v>
+        <v>0.1666666635816832</v>
       </c>
     </row>
     <row r="35">
@@ -1523,31 +1421,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2060245390098717</v>
+        <v>0.1666666714740807</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1187229953590398</v>
+        <v>0.1666666714740807</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1937952188926635</v>
+        <v>1e-08</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1937960188926635</v>
+        <v>0.1666666645836353</v>
       </c>
       <c r="F35" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666645836353</v>
       </c>
       <c r="G35" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2397162065381346</v>
+        <v>0.166666663942284</v>
       </c>
       <c r="I35" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.0479433213076269</v>
+        <v>0.166666663942284</v>
       </c>
     </row>
     <row r="36">
@@ -1555,31 +1450,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2060245390113891</v>
+        <v>0.1666666712835224</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1187229953599142</v>
+        <v>0.1666666712835224</v>
       </c>
       <c r="D36" t="n">
-        <v>0.193795218894091</v>
+        <v>1e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.193796018894091</v>
+        <v>0.1666666647713916</v>
       </c>
       <c r="F36" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666647713916</v>
       </c>
       <c r="G36" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2397162065337623</v>
+        <v>0.1666666639450859</v>
       </c>
       <c r="I36" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.04794332130675244</v>
+        <v>0.1666666639450859</v>
       </c>
     </row>
     <row r="37">
@@ -1587,31 +1479,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2060245390114454</v>
+        <v>0.1666666719611507</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1187229953599466</v>
+        <v>0.1666666719611507</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1937952188941437</v>
+        <v>1e-08</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1937960188941437</v>
+        <v>0.1666666646804618</v>
       </c>
       <c r="F37" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666646804618</v>
       </c>
       <c r="G37" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2397162065336003</v>
+        <v>0.1666666633583875</v>
       </c>
       <c r="I37" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.04794332130672006</v>
+        <v>0.1666666633583875</v>
       </c>
     </row>
     <row r="38">
@@ -1619,31 +1508,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2060245390116349</v>
+        <v>0.1666666718519254</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1187229953600558</v>
+        <v>0.1666666718519254</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1937952188943221</v>
+        <v>1e-08</v>
       </c>
       <c r="E38" t="n">
-        <v>0.193796018894322</v>
+        <v>0.1666666647250007</v>
       </c>
       <c r="F38" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666647250007</v>
       </c>
       <c r="G38" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2397162065330543</v>
+        <v>0.1666666634230738</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.04794332130661086</v>
+        <v>0.1666666634230738</v>
       </c>
     </row>
     <row r="39">
@@ -1651,31 +1537,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2060245390121507</v>
+        <v>0.1666666714107037</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1187229953603531</v>
+        <v>0.1666666714107037</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1937952188948073</v>
+        <v>1e-08</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1937960188948073</v>
+        <v>0.166666665100962</v>
       </c>
       <c r="F39" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666651009621</v>
       </c>
       <c r="G39" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2397162065315681</v>
+        <v>0.1666666634883343</v>
       </c>
       <c r="I39" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.04794332130631362</v>
+        <v>0.1666666634883343</v>
       </c>
     </row>
     <row r="40">
@@ -1683,31 +1566,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2060245390122987</v>
+        <v>0.1666666719115542</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1187229953604383</v>
+        <v>0.1666666719115542</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1937952188949465</v>
+        <v>1e-08</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1937960188949464</v>
+        <v>0.1666666649999793</v>
       </c>
       <c r="F40" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649999793</v>
       </c>
       <c r="G40" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2397162065311416</v>
+        <v>0.1666666630884665</v>
       </c>
       <c r="I40" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.04794332130622831</v>
+        <v>0.1666666630884665</v>
       </c>
     </row>
     <row r="41">
@@ -1715,31 +1595,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2060245390100476</v>
+        <v>0.166666671775109</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1187229953591411</v>
+        <v>0.166666671775109</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1937952188928291</v>
+        <v>1e-08</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1937960188928291</v>
+        <v>0.1666666650819524</v>
       </c>
       <c r="F41" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666650819524</v>
       </c>
       <c r="G41" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2397162065376274</v>
+        <v>0.1666666631429386</v>
       </c>
       <c r="I41" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.04794332130752549</v>
+        <v>0.1666666631429386</v>
       </c>
     </row>
     <row r="42">
@@ -1747,31 +1624,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2060245390090839</v>
+        <v>0.1666666724077979</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1187229953585858</v>
+        <v>0.1666666724077979</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1937952188919226</v>
+        <v>1e-08</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1937960188919226</v>
+        <v>0.1666666651084171</v>
       </c>
       <c r="F42" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666651084172</v>
       </c>
       <c r="G42" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2397162065404042</v>
+        <v>0.166666662483785</v>
       </c>
       <c r="I42" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.04794332130808085</v>
+        <v>0.166666662483785</v>
       </c>
     </row>
     <row r="43">
@@ -1779,31 +1653,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2060245390096132</v>
+        <v>0.1666666726622103</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1187229953588909</v>
+        <v>0.1666666726622103</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1937952188924205</v>
+        <v>1e-08</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1937960188924205</v>
+        <v>0.1666666650784281</v>
       </c>
       <c r="F43" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666650784281</v>
       </c>
       <c r="G43" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2397162065388789</v>
+        <v>0.1666666622593615</v>
       </c>
       <c r="I43" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.04794332130777578</v>
+        <v>0.1666666622593615</v>
       </c>
     </row>
     <row r="44">
@@ -1811,31 +1682,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2060245390094009</v>
+        <v>0.1666666730241173</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1187229953587685</v>
+        <v>0.1666666730241173</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1937952188922209</v>
+        <v>1e-08</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1937960188922209</v>
+        <v>0.1666666649459997</v>
       </c>
       <c r="F44" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649459997</v>
       </c>
       <c r="G44" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2397162065394905</v>
+        <v>0.1666666620298831</v>
       </c>
       <c r="I44" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.04794332130789811</v>
+        <v>0.1666666620298831</v>
       </c>
     </row>
     <row r="45">
@@ -1843,31 +1711,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2060245390091001</v>
+        <v>0.1666666732048186</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1187229953585952</v>
+        <v>0.1666666732048186</v>
       </c>
       <c r="D45" t="n">
-        <v>0.193795218891938</v>
+        <v>1e-08</v>
       </c>
       <c r="E45" t="n">
-        <v>0.193796018891938</v>
+        <v>0.1666666648357534</v>
       </c>
       <c r="F45" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666648357534</v>
       </c>
       <c r="G45" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2397162065403571</v>
+        <v>0.166666661959428</v>
       </c>
       <c r="I45" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.04794332130807143</v>
+        <v>0.166666661959428</v>
       </c>
     </row>
     <row r="46">
@@ -1875,31 +1740,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.206024539011181</v>
+        <v>0.1666666727167618</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1187229953597944</v>
+        <v>0.1666666727167618</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1937952188938955</v>
+        <v>1e-08</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1937960188938956</v>
+        <v>0.1666666649158344</v>
       </c>
       <c r="F46" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649158344</v>
       </c>
       <c r="G46" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2397162065343612</v>
+        <v>0.1666666623674039</v>
       </c>
       <c r="I46" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.04794332130687222</v>
+        <v>0.1666666623674039</v>
       </c>
     </row>
     <row r="47">
@@ -1907,31 +1769,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2060245390104439</v>
+        <v>0.1666666724463375</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1187229953593697</v>
+        <v>0.1666666724463375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1937952188932023</v>
+        <v>1e-08</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1937960188932023</v>
+        <v>0.1666666649040319</v>
       </c>
       <c r="F47" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649040319</v>
       </c>
       <c r="G47" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2397162065364845</v>
+        <v>0.1666666626496306</v>
       </c>
       <c r="I47" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.04794332130729691</v>
+        <v>0.1666666626496306</v>
       </c>
     </row>
     <row r="48">
@@ -1939,31 +1798,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.206024539010691</v>
+        <v>0.1666666724788328</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1187229953595121</v>
+        <v>0.1666666724788328</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1937952188934347</v>
+        <v>1e-08</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1937960188934347</v>
+        <v>0.1666666649029197</v>
       </c>
       <c r="F48" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649029197</v>
       </c>
       <c r="G48" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2397162065357729</v>
+        <v>0.1666666626182475</v>
       </c>
       <c r="I48" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.04794332130715458</v>
+        <v>0.1666666626182475</v>
       </c>
     </row>
     <row r="49">
@@ -1971,31 +1827,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2060245390100798</v>
+        <v>0.1666666722107607</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1187229953591598</v>
+        <v>0.1666666722107607</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1937952188928597</v>
+        <v>1e-08</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1937960188928597</v>
+        <v>0.1666666649522275</v>
       </c>
       <c r="F49" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649522275</v>
       </c>
       <c r="G49" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2397162065375343</v>
+        <v>0.1666666628370119</v>
       </c>
       <c r="I49" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.04794332130750686</v>
+        <v>0.1666666628370119</v>
       </c>
     </row>
     <row r="50">
@@ -2003,31 +1856,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2060245390106721</v>
+        <v>0.1666666723533295</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1187229953595011</v>
+        <v>0.1666666723533295</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1937952188934167</v>
+        <v>1e-08</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1937960188934167</v>
+        <v>0.1666666649956591</v>
       </c>
       <c r="F50" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649956591</v>
       </c>
       <c r="G50" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2397162065358276</v>
+        <v>0.1666666626510114</v>
       </c>
       <c r="I50" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.04794332130716551</v>
+        <v>0.1666666626510113</v>
       </c>
     </row>
     <row r="51">
@@ -2035,31 +1885,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2060245390095064</v>
+        <v>0.1666666719969511</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1187229953588295</v>
+        <v>0.1666666719969511</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1937952188923204</v>
+        <v>1e-08</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1937960188923204</v>
+        <v>0.1666666651605693</v>
       </c>
       <c r="F51" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666651605693</v>
       </c>
       <c r="G51" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2397162065391858</v>
+        <v>0.1666666628424796</v>
       </c>
       <c r="I51" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.04794332130783717</v>
+        <v>0.1666666628424796</v>
       </c>
     </row>
     <row r="52">
@@ -2067,31 +1914,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2060245390103345</v>
+        <v>0.1666666722320348</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1187229953593066</v>
+        <v>0.1666666722320348</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1937952188930992</v>
+        <v>1e-08</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1937960188930992</v>
+        <v>0.1666666649911047</v>
       </c>
       <c r="F52" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649911047</v>
       </c>
       <c r="G52" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2397162065368003</v>
+        <v>0.1666666627768606</v>
       </c>
       <c r="I52" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.04794332130736007</v>
+        <v>0.1666666627768606</v>
       </c>
     </row>
     <row r="53">
@@ -2099,31 +1943,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2060245390085778</v>
+        <v>0.1666666718838639</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1187229953582943</v>
+        <v>0.1666666718838638</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1937952188914468</v>
+        <v>1e-08</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1937960188914468</v>
+        <v>0.1666666651030111</v>
       </c>
       <c r="F53" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666651030111</v>
       </c>
       <c r="G53" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H53" t="n">
-        <v>0.239716206541862</v>
+        <v>0.166666663013125</v>
       </c>
       <c r="I53" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.04794332130837239</v>
+        <v>0.166666663013125</v>
       </c>
     </row>
     <row r="54">
@@ -2131,31 +1972,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2060245390109895</v>
+        <v>0.166666672511</v>
       </c>
       <c r="C54" t="n">
-        <v>0.118722995359684</v>
+        <v>0.1666666725109999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1937952188937153</v>
+        <v>1e-08</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1937960188937153</v>
+        <v>0.1666666648084589</v>
       </c>
       <c r="F54" t="n">
-        <v>8.1e-07</v>
+        <v>0.166666664808459</v>
       </c>
       <c r="G54" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2397162065349132</v>
+        <v>0.1666666626805411</v>
       </c>
       <c r="I54" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.04794332130698262</v>
+        <v>0.1666666626805411</v>
       </c>
     </row>
     <row r="55">
@@ -2163,31 +2001,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2060245390094039</v>
+        <v>0.1666666722485477</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1187229953587703</v>
+        <v>0.1666666722485477</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1937952188922238</v>
+        <v>1e-08</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1937960188922238</v>
+        <v>0.1666666649420825</v>
       </c>
       <c r="F55" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649420825</v>
       </c>
       <c r="G55" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2397162065394816</v>
+        <v>0.1666666628093698</v>
       </c>
       <c r="I55" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.0479433213078963</v>
+        <v>0.1666666628093698</v>
       </c>
     </row>
     <row r="56">
@@ -2195,31 +2030,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2060245390104144</v>
+        <v>0.1666666722676435</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1187229953593526</v>
+        <v>0.1666666722676435</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1937952188931742</v>
+        <v>1e-08</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1937960188931742</v>
+        <v>0.1666666648241063</v>
       </c>
       <c r="F56" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666648241063</v>
       </c>
       <c r="G56" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2397162065365704</v>
+        <v>0.1666666629082502</v>
       </c>
       <c r="I56" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.04794332130731408</v>
+        <v>0.1666666629082502</v>
       </c>
     </row>
     <row r="57">
@@ -2227,31 +2059,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2060245390105542</v>
+        <v>0.1666666716865303</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1187229953594331</v>
+        <v>0.1666666716865303</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1937952188933058</v>
+        <v>1e-08</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1937960188933058</v>
+        <v>0.1666666649899824</v>
       </c>
       <c r="F57" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666649899824</v>
       </c>
       <c r="G57" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2397162065361674</v>
+        <v>0.1666666633234873</v>
       </c>
       <c r="I57" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.0479433213072335</v>
+        <v>0.1666666633234873</v>
       </c>
     </row>
     <row r="58">
@@ -2259,31 +2088,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2060245390110855</v>
+        <v>0.166666671095348</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1187229953597393</v>
+        <v>0.166666671095348</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1937952188938056</v>
+        <v>1e-08</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1937960188938056</v>
+        <v>0.1666666652585711</v>
       </c>
       <c r="F58" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666652585711</v>
       </c>
       <c r="G58" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2397162065346366</v>
+        <v>0.1666666636460809</v>
       </c>
       <c r="I58" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.04794332130692732</v>
+        <v>0.1666666636460809</v>
       </c>
     </row>
     <row r="59">
@@ -2291,31 +2117,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2060245390081999</v>
+        <v>0.1666666706838868</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1187229953580765</v>
+        <v>0.1666666706838868</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1937952188910914</v>
+        <v>1e-08</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1937960188910914</v>
+        <v>0.166666665554664</v>
       </c>
       <c r="F59" t="n">
-        <v>8.1e-07</v>
+        <v>0.166666665554664</v>
       </c>
       <c r="G59" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2397162065429504</v>
+        <v>0.1666666637614492</v>
       </c>
       <c r="I59" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.04794332130859007</v>
+        <v>0.1666666637614491</v>
       </c>
     </row>
     <row r="60">
@@ -2323,31 +2146,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2060245390106095</v>
+        <v>0.1666666706804527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1187229953594651</v>
+        <v>0.1666666706804527</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1937952188933581</v>
+        <v>1e-08</v>
       </c>
       <c r="E60" t="n">
-        <v>0.193796018893358</v>
+        <v>0.1666666655623541</v>
       </c>
       <c r="F60" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666655623541</v>
       </c>
       <c r="G60" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2397162065360075</v>
+        <v>0.1666666637571932</v>
       </c>
       <c r="I60" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.0479433213072015</v>
+        <v>0.1666666637571932</v>
       </c>
     </row>
     <row r="61">
@@ -2355,31 +2175,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2060245390100059</v>
+        <v>0.1666666708603981</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1187229953591172</v>
+        <v>0.1666666708603981</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1937952188927902</v>
+        <v>1e-08</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1937960188927902</v>
+        <v>0.1666666655389061</v>
       </c>
       <c r="F61" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666655389061</v>
       </c>
       <c r="G61" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2397162065377469</v>
+        <v>0.1666666636006959</v>
       </c>
       <c r="I61" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.0479433213075494</v>
+        <v>0.1666666636006959</v>
       </c>
     </row>
     <row r="62">
@@ -2387,31 +2204,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2060245390101279</v>
+        <v>0.1666666709175259</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1187229953591876</v>
+        <v>0.1666666709175259</v>
       </c>
       <c r="D62" t="n">
-        <v>0.193795218892905</v>
+        <v>1e-08</v>
       </c>
       <c r="E62" t="n">
-        <v>0.193796018892905</v>
+        <v>0.1666666654826938</v>
       </c>
       <c r="F62" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666654826938</v>
       </c>
       <c r="G62" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2397162065373953</v>
+        <v>0.1666666635997804</v>
       </c>
       <c r="I62" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.04794332130747905</v>
+        <v>0.1666666635997804</v>
       </c>
     </row>
     <row r="63">
@@ -2419,31 +2233,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2060245390097965</v>
+        <v>0.1666666705337129</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1187229953589965</v>
+        <v>0.1666666705337128</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1937952188925931</v>
+        <v>1e-08</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1937960188925931</v>
+        <v>0.1666666656427595</v>
       </c>
       <c r="F63" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666656427596</v>
       </c>
       <c r="G63" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2397162065383508</v>
+        <v>0.1666666638235275</v>
       </c>
       <c r="I63" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.04794332130767015</v>
+        <v>0.1666666638235275</v>
       </c>
     </row>
     <row r="64">
@@ -2451,31 +2262,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2060245390101858</v>
+        <v>0.1666666710735316</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1187229953592209</v>
+        <v>0.1666666710735315</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1937952188929593</v>
+        <v>1e-08</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1937960188929593</v>
+        <v>0.166666665569289</v>
       </c>
       <c r="F64" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666655692891</v>
       </c>
       <c r="G64" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2397162065372289</v>
+        <v>0.1666666633571794</v>
       </c>
       <c r="I64" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.04794332130744579</v>
+        <v>0.1666666633571794</v>
       </c>
     </row>
     <row r="65">
@@ -2483,31 +2291,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2060245390092465</v>
+        <v>0.1666666712439765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1187229953586796</v>
+        <v>0.1666666712439765</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1937952188920758</v>
+        <v>1e-08</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1937960188920758</v>
+        <v>0.1666666656168096</v>
       </c>
       <c r="F65" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666656168096</v>
       </c>
       <c r="G65" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2397162065399351</v>
+        <v>0.1666666631392139</v>
       </c>
       <c r="I65" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.047943321307987</v>
+        <v>0.1666666631392139</v>
       </c>
     </row>
     <row r="66">
@@ -2515,31 +2320,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2060245390110532</v>
+        <v>0.1666666716733114</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1187229953597207</v>
+        <v>0.1666666716733114</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1937952188937753</v>
+        <v>1e-08</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1937960188937753</v>
+        <v>0.1666666655268161</v>
       </c>
       <c r="F66" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666655268161</v>
       </c>
       <c r="G66" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2397162065347295</v>
+        <v>0.1666666627998726</v>
       </c>
       <c r="I66" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.04794332130694588</v>
+        <v>0.1666666627998726</v>
       </c>
     </row>
     <row r="67">
@@ -2547,31 +2349,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2060245390114987</v>
+        <v>0.1666666716609245</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1187229953599775</v>
+        <v>0.1666666716609245</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1937952188941944</v>
+        <v>1e-08</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1937960188941944</v>
+        <v>0.1666666652435521</v>
       </c>
       <c r="F67" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666652435521</v>
       </c>
       <c r="G67" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2397162065334457</v>
+        <v>0.1666666630955234</v>
       </c>
       <c r="I67" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.04794332130668916</v>
+        <v>0.1666666630955234</v>
       </c>
     </row>
     <row r="68">
@@ -2579,31 +2378,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2060245390129813</v>
+        <v>0.1666666716543715</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1187229953608318</v>
+        <v>0.1666666716543715</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1937952188955889</v>
+        <v>1e-08</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1937960188955889</v>
+        <v>0.1666666653045324</v>
       </c>
       <c r="F68" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666653045324</v>
       </c>
       <c r="G68" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2397162065291742</v>
+        <v>0.166666663041096</v>
       </c>
       <c r="I68" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.04794332130583485</v>
+        <v>0.166666663041096</v>
       </c>
     </row>
     <row r="69">
@@ -2611,31 +2407,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2060245390111414</v>
+        <v>0.1666666715918281</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1187229953597715</v>
+        <v>0.1666666715918281</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1937952188938581</v>
+        <v>1e-08</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1937960188938581</v>
+        <v>0.1666666653306382</v>
       </c>
       <c r="F69" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666653306382</v>
       </c>
       <c r="G69" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2397162065344756</v>
+        <v>0.1666666630775338</v>
       </c>
       <c r="I69" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.04794332130689512</v>
+        <v>0.1666666630775338</v>
       </c>
     </row>
     <row r="70">
@@ -2643,31 +2436,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.206024539012521</v>
+        <v>0.1666666713448066</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1187229953605665</v>
+        <v>0.1666666713448066</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1937952188951559</v>
+        <v>1e-08</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1937960188951559</v>
+        <v>0.1666666654920433</v>
       </c>
       <c r="F70" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666654920433</v>
       </c>
       <c r="G70" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2397162065305007</v>
+        <v>0.1666666631631501</v>
       </c>
       <c r="I70" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.04794332130610011</v>
+        <v>0.1666666631631501</v>
       </c>
     </row>
     <row r="71">
@@ -2675,31 +2465,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2060245390115982</v>
+        <v>0.16666667163385</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1187229953600348</v>
+        <v>0.16666667163385</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1937952188942879</v>
+        <v>1e-08</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1937960188942879</v>
+        <v>0.1666666652813492</v>
       </c>
       <c r="F71" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666652813492</v>
       </c>
       <c r="G71" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2397162065331593</v>
+        <v>0.1666666630848008</v>
       </c>
       <c r="I71" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.04794332130663187</v>
+        <v>0.1666666630848008</v>
       </c>
     </row>
     <row r="72">
@@ -2707,31 +2494,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.206024539012489</v>
+        <v>0.1666666714557384</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1187229953605482</v>
+        <v>0.1666666714557384</v>
       </c>
       <c r="D72" t="n">
-        <v>0.193795218895126</v>
+        <v>1e-08</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1937960188951259</v>
+        <v>0.1666666654229541</v>
       </c>
       <c r="F72" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666654229541</v>
       </c>
       <c r="G72" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2397162065305923</v>
+        <v>0.1666666631213075</v>
       </c>
       <c r="I72" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.04794332130611847</v>
+        <v>0.1666666631213075</v>
       </c>
     </row>
     <row r="73">
@@ -2739,31 +2523,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2060245390118158</v>
+        <v>0.1666666713818031</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1187229953601603</v>
+        <v>0.1666666713818031</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1937952188944927</v>
+        <v>1e-08</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1937960188944927</v>
+        <v>0.1666666655903439</v>
       </c>
       <c r="F73" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666655903439</v>
       </c>
       <c r="G73" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2397162065325321</v>
+        <v>0.166666663027853</v>
       </c>
       <c r="I73" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.04794332130650642</v>
+        <v>0.166666663027853</v>
       </c>
     </row>
     <row r="74">
@@ -2771,31 +2552,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2060245390096364</v>
+        <v>0.1666666720388804</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1187229953589044</v>
+        <v>0.1666666720388804</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1937952188924429</v>
+        <v>1e-08</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1937960188924429</v>
+        <v>0.1666666653932515</v>
       </c>
       <c r="F74" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666653932515</v>
       </c>
       <c r="G74" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2397162065388111</v>
+        <v>0.1666666625678682</v>
       </c>
       <c r="I74" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.04794332130776222</v>
+        <v>0.1666666625678682</v>
       </c>
     </row>
     <row r="75">
@@ -2803,31 +2581,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2060245390103515</v>
+        <v>0.1666666720398566</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1187229953593165</v>
+        <v>0.1666666720398566</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1937952188931156</v>
+        <v>1e-08</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1937960188931156</v>
+        <v>0.1666666653998759</v>
       </c>
       <c r="F75" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666653998759</v>
       </c>
       <c r="G75" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2397162065367504</v>
+        <v>0.1666666625602674</v>
       </c>
       <c r="I75" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.04794332130735008</v>
+        <v>0.1666666625602674</v>
       </c>
     </row>
     <row r="76">
@@ -2835,31 +2610,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2060245390105707</v>
+        <v>0.1666666721553096</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1187229953594429</v>
+        <v>0.1666666721553096</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1937952188933219</v>
+        <v>1e-08</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1937960188933219</v>
+        <v>0.1666666653765076</v>
       </c>
       <c r="F76" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666653765076</v>
       </c>
       <c r="G76" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2397162065361189</v>
+        <v>0.1666666624681827</v>
       </c>
       <c r="I76" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.04794332130722376</v>
+        <v>0.1666666624681827</v>
       </c>
     </row>
     <row r="77">
@@ -2867,31 +2639,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2060245390095166</v>
+        <v>0.1666666722737915</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1187229953588355</v>
+        <v>0.1666666722737915</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1937952188923305</v>
+        <v>1e-08</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1937960188923305</v>
+        <v>0.1666666652153028</v>
       </c>
       <c r="F77" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666652153028</v>
       </c>
       <c r="G77" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2397162065391555</v>
+        <v>0.1666666625109056</v>
       </c>
       <c r="I77" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.0479433213078311</v>
+        <v>0.1666666625109056</v>
       </c>
     </row>
     <row r="78">
@@ -2899,31 +2668,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2060245390113476</v>
+        <v>0.1666666723086408</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1187229953598907</v>
+        <v>0.1666666723086408</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1937952188940529</v>
+        <v>1e-08</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1937960188940529</v>
+        <v>0.1666666652580059</v>
       </c>
       <c r="F78" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666652580059</v>
       </c>
       <c r="G78" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2397162065338801</v>
+        <v>0.1666666624333533</v>
       </c>
       <c r="I78" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.04794332130677602</v>
+        <v>0.1666666624333533</v>
       </c>
     </row>
     <row r="79">
@@ -2931,31 +2697,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.2060245390115822</v>
+        <v>0.1666666717932312</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1187229953600259</v>
+        <v>0.1666666717932312</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1937952188942735</v>
+        <v>1e-08</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1937960188942736</v>
+        <v>0.1666666653273043</v>
       </c>
       <c r="F79" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666653273043</v>
       </c>
       <c r="G79" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H79" t="n">
-        <v>0.239716206533204</v>
+        <v>0.1666666628794645</v>
       </c>
       <c r="I79" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.0479433213066408</v>
+        <v>0.1666666628794645</v>
       </c>
     </row>
     <row r="80">
@@ -2963,31 +2726,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206024539012066</v>
+        <v>0.1666666718612716</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1187229953603046</v>
+        <v>0.1666666718612716</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1937952188947286</v>
+        <v>1e-08</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1937960188947286</v>
+        <v>0.1666666652480167</v>
       </c>
       <c r="F80" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666652480167</v>
       </c>
       <c r="G80" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2397162065318099</v>
+        <v>0.1666666628907117</v>
       </c>
       <c r="I80" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.047943321306362</v>
+        <v>0.1666666628907117</v>
       </c>
     </row>
     <row r="81">
@@ -2995,31 +2755,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2060245390114698</v>
+        <v>0.1666666714508084</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1187229953599611</v>
+        <v>0.1666666714508084</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1937952188941677</v>
+        <v>1e-08</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1937960188941678</v>
+        <v>0.1666666654158555</v>
       </c>
       <c r="F81" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666654158555</v>
       </c>
       <c r="G81" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2397162065335279</v>
+        <v>0.166666663133336</v>
       </c>
       <c r="I81" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.04794332130670558</v>
+        <v>0.166666663133336</v>
       </c>
     </row>
     <row r="82">
@@ -3027,31 +2784,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2060245390121437</v>
+        <v>0.1666666705926311</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1187229953603494</v>
+        <v>0.166666670592631</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1937952188948016</v>
+        <v>1e-08</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1937960188948016</v>
+        <v>0.1666666659394188</v>
       </c>
       <c r="F82" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666659394189</v>
       </c>
       <c r="G82" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2397162065315864</v>
+        <v>0.1666666634679501</v>
       </c>
       <c r="I82" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.04794332130631729</v>
+        <v>0.1666666634679501</v>
       </c>
     </row>
     <row r="83">
@@ -3059,31 +2813,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2060245390130877</v>
+        <v>0.1666666709064324</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1187229953608934</v>
+        <v>0.1666666709064324</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1937952188956897</v>
+        <v>1e-08</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1937960188956898</v>
+        <v>0.166666665871522</v>
       </c>
       <c r="F83" t="n">
-        <v>8.1e-07</v>
+        <v>0.166666665871522</v>
       </c>
       <c r="G83" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2397162065288661</v>
+        <v>0.1666666632220456</v>
       </c>
       <c r="I83" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.04794332130577322</v>
+        <v>0.1666666632220456</v>
       </c>
     </row>
     <row r="84">
@@ -3091,31 +2842,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2060245390121489</v>
+        <v>0.1666666710439593</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1187229953603525</v>
+        <v>0.1666666710439593</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1937952188948067</v>
+        <v>1e-08</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1937960188948067</v>
+        <v>0.1666666656954074</v>
       </c>
       <c r="F84" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666656954074</v>
       </c>
       <c r="G84" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2397162065315709</v>
+        <v>0.1666666632606331</v>
       </c>
       <c r="I84" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.04794332130631417</v>
+        <v>0.1666666632606331</v>
       </c>
     </row>
     <row r="85">
@@ -3123,31 +2871,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2060245390093649</v>
+        <v>0.1666666706346543</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1187229953587482</v>
+        <v>0.1666666706346543</v>
       </c>
       <c r="D85" t="n">
-        <v>0.193795218892188</v>
+        <v>1e-08</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1937960188921879</v>
+        <v>0.1666666656227347</v>
       </c>
       <c r="F85" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666656227347</v>
       </c>
       <c r="G85" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2397162065395924</v>
+        <v>0.166666663742611</v>
       </c>
       <c r="I85" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.0479433213079185</v>
+        <v>0.166666663742611</v>
       </c>
     </row>
     <row r="86">
@@ -3155,31 +2900,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2060245390085741</v>
+        <v>0.1666666708399056</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1187229953582925</v>
+        <v>0.1666666708399056</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1937952188914442</v>
+        <v>1e-08</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1937960188914442</v>
+        <v>0.166666665827646</v>
       </c>
       <c r="F86" t="n">
-        <v>8.1e-07</v>
+        <v>0.166666665827646</v>
       </c>
       <c r="G86" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2397162065418706</v>
+        <v>0.1666666633324485</v>
       </c>
       <c r="I86" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.04794332130837411</v>
+        <v>0.1666666633324485</v>
       </c>
     </row>
     <row r="87">
@@ -3187,31 +2929,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2060245390098449</v>
+        <v>0.1666666709395989</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1187229953590247</v>
+        <v>0.1666666709395989</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1937952188926394</v>
+        <v>1e-08</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1937960188926393</v>
+        <v>0.1666666659903111</v>
       </c>
       <c r="F87" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666659903111</v>
       </c>
       <c r="G87" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2397162065382097</v>
+        <v>0.16666666307009</v>
       </c>
       <c r="I87" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.04794332130764193</v>
+        <v>0.16666666307009</v>
       </c>
     </row>
     <row r="88">
@@ -3219,31 +2958,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2060245390087678</v>
+        <v>0.1666666712990988</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1187229953584039</v>
+        <v>0.1666666712990988</v>
       </c>
       <c r="D88" t="n">
-        <v>0.193795218891626</v>
+        <v>1e-08</v>
       </c>
       <c r="E88" t="n">
-        <v>0.193796018891626</v>
+        <v>0.1666666659123044</v>
       </c>
       <c r="F88" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666659123044</v>
       </c>
       <c r="G88" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2397162065413135</v>
+        <v>0.1666666627885968</v>
       </c>
       <c r="I88" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.0479433213082627</v>
+        <v>0.1666666627885968</v>
       </c>
     </row>
     <row r="89">
@@ -3251,31 +2987,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2060245390085694</v>
+        <v>0.1666666714627876</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1187229953582897</v>
+        <v>0.1666666714627876</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1937952188914395</v>
+        <v>1e-08</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1937960188914395</v>
+        <v>0.1666666658303164</v>
       </c>
       <c r="F89" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666658303164</v>
       </c>
       <c r="G89" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2397162065418849</v>
+        <v>0.1666666627068959</v>
       </c>
       <c r="I89" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.04794332130837696</v>
+        <v>0.1666666627068959</v>
       </c>
     </row>
     <row r="90">
@@ -3283,31 +3016,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2060245390104322</v>
+        <v>0.1666666713238268</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1187229953593631</v>
+        <v>0.1666666713238268</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1937952188931917</v>
+        <v>1e-08</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1937960188931916</v>
+        <v>0.1666666659184279</v>
       </c>
       <c r="F90" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666659184279</v>
       </c>
       <c r="G90" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2397162065365176</v>
+        <v>0.1666666627577454</v>
       </c>
       <c r="I90" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.0479433213073035</v>
+        <v>0.1666666627577454</v>
       </c>
     </row>
     <row r="91">
@@ -3315,31 +3045,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2060245390127483</v>
+        <v>0.1666666714157776</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1187229953606978</v>
+        <v>0.1666666714157776</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1937952188953703</v>
+        <v>1e-08</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1937960188953703</v>
+        <v>0.1666666657953614</v>
       </c>
       <c r="F91" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666657953614</v>
       </c>
       <c r="G91" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2397162065298443</v>
+        <v>0.1666666627888609</v>
       </c>
       <c r="I91" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.04794332130596886</v>
+        <v>0.1666666627888609</v>
       </c>
     </row>
     <row r="92">
@@ -3347,31 +3074,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2060245390129371</v>
+        <v>0.1666666714795424</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1187229953608066</v>
+        <v>0.1666666714795424</v>
       </c>
       <c r="D92" t="n">
-        <v>0.193795218895548</v>
+        <v>1e-08</v>
       </c>
       <c r="E92" t="n">
-        <v>0.193796018895548</v>
+        <v>0.1666666656974882</v>
       </c>
       <c r="F92" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666656974882</v>
       </c>
       <c r="G92" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2397162065293004</v>
+        <v>0.1666666628229694</v>
       </c>
       <c r="I92" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.04794332130586007</v>
+        <v>0.1666666628229694</v>
       </c>
     </row>
     <row r="93">
@@ -3379,31 +3103,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2060245390130706</v>
+        <v>0.1666666708861776</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1187229953608836</v>
+        <v>0.1666666708861776</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1937952188956736</v>
+        <v>1e-08</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1937960188956737</v>
+        <v>0.1666666659219774</v>
       </c>
       <c r="F93" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666659219774</v>
       </c>
       <c r="G93" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2397162065289154</v>
+        <v>0.1666666631918451</v>
       </c>
       <c r="I93" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.04794332130578307</v>
+        <v>0.1666666631918451</v>
       </c>
     </row>
     <row r="94">
@@ -3411,31 +3132,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2060245390118939</v>
+        <v>0.1666666712040489</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1187229953602054</v>
+        <v>0.1666666712040489</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1937952188945667</v>
+        <v>1e-08</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1937960188945667</v>
+        <v>0.1666666656589941</v>
       </c>
       <c r="F94" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666656589941</v>
       </c>
       <c r="G94" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H94" t="n">
-        <v>0.239716206532306</v>
+        <v>0.166666663136957</v>
       </c>
       <c r="I94" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.0479433213064612</v>
+        <v>0.166666663136957</v>
       </c>
     </row>
     <row r="95">
@@ -3443,31 +3161,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2060245390128579</v>
+        <v>0.1666666709596782</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1187229953607609</v>
+        <v>0.1666666709596782</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1937952188954734</v>
+        <v>1e-08</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1937960188954734</v>
+        <v>0.1666666658486496</v>
       </c>
       <c r="F95" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666658486496</v>
       </c>
       <c r="G95" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2397162065295287</v>
+        <v>0.1666666631916721</v>
       </c>
       <c r="I95" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.04794332130590574</v>
+        <v>0.1666666631916721</v>
       </c>
     </row>
     <row r="96">
@@ -3475,31 +3190,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2060245390120171</v>
+        <v>0.1666666711726968</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1187229953602765</v>
+        <v>0.1666666711726968</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1937952188946826</v>
+        <v>1e-08</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1937960188946826</v>
+        <v>0.1666666656781533</v>
       </c>
       <c r="F96" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666656781533</v>
       </c>
       <c r="G96" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H96" t="n">
-        <v>0.239716206531951</v>
+        <v>0.16666666314915</v>
       </c>
       <c r="I96" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.0479433213063902</v>
+        <v>0.16666666314915</v>
       </c>
     </row>
     <row r="97">
@@ -3507,31 +3219,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2060245390108702</v>
+        <v>0.1666666706171225</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1187229953596155</v>
+        <v>0.1666666706171225</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1937952188936037</v>
+        <v>1e-08</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1937960188936036</v>
+        <v>0.1666666657616876</v>
       </c>
       <c r="F97" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666657616876</v>
       </c>
       <c r="G97" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2397162065352557</v>
+        <v>0.1666666636211898</v>
       </c>
       <c r="I97" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.04794332130705113</v>
+        <v>0.1666666636211898</v>
       </c>
     </row>
     <row r="98">
@@ -3539,31 +3248,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2060245390107812</v>
+        <v>0.1666666702806256</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1187229953595643</v>
+        <v>0.1666666702806256</v>
       </c>
       <c r="D98" t="n">
-        <v>0.19379521889352</v>
+        <v>1e-08</v>
       </c>
       <c r="E98" t="n">
-        <v>0.19379601889352</v>
+        <v>0.1666666660119888</v>
       </c>
       <c r="F98" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666660119888</v>
       </c>
       <c r="G98" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2397162065355121</v>
+        <v>0.1666666637073856</v>
       </c>
       <c r="I98" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.04794332130710242</v>
+        <v>0.1666666637073856</v>
       </c>
     </row>
     <row r="99">
@@ -3571,31 +3277,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.206024539009649</v>
+        <v>0.166666670448836</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1187229953589117</v>
+        <v>0.166666670448836</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1937952188924549</v>
+        <v>1e-08</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1937960188924548</v>
+        <v>0.1666666662606769</v>
       </c>
       <c r="F99" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666662606769</v>
       </c>
       <c r="G99" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2397162065387747</v>
+        <v>0.1666666632904871</v>
       </c>
       <c r="I99" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.04794332130775493</v>
+        <v>0.1666666632904871</v>
       </c>
     </row>
     <row r="100">
@@ -3603,31 +3306,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2060245390080155</v>
+        <v>0.1666666705666543</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1187229953579705</v>
+        <v>0.1666666705666543</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1937952188909183</v>
+        <v>1e-08</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1937960188909184</v>
+        <v>0.1666666662060624</v>
       </c>
       <c r="F100" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666662060624</v>
       </c>
       <c r="G100" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2397162065434809</v>
+        <v>0.1666666632272832</v>
       </c>
       <c r="I100" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.04794332130869618</v>
+        <v>0.1666666632272832</v>
       </c>
     </row>
     <row r="101">
@@ -3635,31 +3335,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2060245390096057</v>
+        <v>0.1666666705206398</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1187229953588868</v>
+        <v>0.1666666705206398</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1937952188924141</v>
+        <v>1e-08</v>
       </c>
       <c r="E101" t="n">
-        <v>0.193796018892414</v>
+        <v>0.1666666660810281</v>
       </c>
       <c r="F101" t="n">
-        <v>8.1e-07</v>
+        <v>0.1666666660810281</v>
       </c>
       <c r="G101" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2397162065388996</v>
+        <v>0.166666663398332</v>
       </c>
       <c r="I101" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.04794332130777992</v>
+        <v>0.166666663398332</v>
       </c>
     </row>
     <row r="102">
@@ -3667,31 +3364,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2060245390090622</v>
+        <v>0.1666666700548224</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1187229953585736</v>
+        <v>0.1666666700548224</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1937952188919028</v>
+        <v>1e-08</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1937960188919029</v>
+        <v>0.1666666663265199</v>
       </c>
       <c r="F102" t="n">
-        <v>8.1e-07</v>
+        <v>0.16666666632652</v>
       </c>
       <c r="G102" t="n">
-        <v>1.96e-06</v>
+        <v>1e-08</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2397162065404654</v>
+        <v>0.1666666636186576</v>
       </c>
       <c r="I102" t="n">
-        <v>4.9e-07</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.04794332130809308</v>
+        <v>0.1666666636186576</v>
       </c>
     </row>
   </sheetData>
